--- a/src_data/McGurkKey.xlsx
+++ b/src_data/McGurkKey.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="180" windowWidth="27795" windowHeight="12525"/>
+    <workbookView xWindow="480" yWindow="180" windowWidth="27795" windowHeight="12525" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Clear" sheetId="1" r:id="rId1"/>
     <sheet name="Noise" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="96">
   <si>
     <t>Item No.</t>
   </si>
@@ -171,12 +171,6 @@
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>Correct button</t>
-  </si>
-  <si>
-    <t>Correct syllable</t>
   </si>
   <si>
     <t>lor_Ba_4dB</t>
@@ -314,8 +308,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -485,7 +479,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -520,7 +513,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -696,14 +688,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
@@ -722,7 +714,7 @@
     <col min="15" max="15" width="19.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="7" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -730,7 +722,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>3</v>
@@ -739,37 +731,37 @@
         <v>1</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="H1" s="3" t="s">
+      <c r="N1" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="O1" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="O1" s="10" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -777,7 +769,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>6</v>
@@ -789,7 +781,7 @@
         <v>7</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H2" s="2">
         <v>2</v>
@@ -798,7 +790,7 @@
         <v>7</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K2" s="4">
         <v>-1</v>
@@ -807,16 +799,16 @@
         <v>-1</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -824,7 +816,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>11</v>
@@ -845,25 +837,25 @@
         <v>7</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L3" s="4">
         <v>-1</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -871,7 +863,7 @@
         <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>15</v>
@@ -907,10 +899,10 @@
         <v>18</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -918,7 +910,7 @@
         <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>21</v>
@@ -927,7 +919,7 @@
         <v>19</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>7</v>
@@ -942,19 +934,19 @@
         <v>-1</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -962,7 +954,7 @@
         <v>23</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>24</v>
@@ -974,7 +966,7 @@
         <v>17</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H6" s="2">
         <v>4</v>
@@ -983,7 +975,7 @@
         <v>17</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K6" s="4">
         <v>-1</v>
@@ -992,13 +984,13 @@
         <v>-1</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1006,7 +998,7 @@
         <v>25</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>26</v>
@@ -1042,7 +1034,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1050,7 +1042,7 @@
         <v>27</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>28</v>
@@ -1071,22 +1063,22 @@
         <v>17</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L8" s="4">
         <v>-1</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N8" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1094,7 +1086,7 @@
         <v>29</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>30</v>
@@ -1103,7 +1095,7 @@
         <v>19</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>17</v>
@@ -1118,19 +1110,19 @@
         <v>-1</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1138,7 +1130,7 @@
         <v>31</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>32</v>
@@ -1150,7 +1142,7 @@
         <v>16</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H10" s="2">
         <v>7</v>
@@ -1159,7 +1151,7 @@
         <v>16</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K10" s="4">
         <v>-1</v>
@@ -1168,13 +1160,13 @@
         <v>-1</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1182,7 +1174,7 @@
         <v>33</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>34</v>
@@ -1218,7 +1210,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1226,7 +1218,7 @@
         <v>35</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>36</v>
@@ -1247,22 +1239,22 @@
         <v>16</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L12" s="4">
         <v>-1</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N12" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1270,7 +1262,7 @@
         <v>37</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>38</v>
@@ -1279,7 +1271,7 @@
         <v>19</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>16</v>
@@ -1294,19 +1286,19 @@
         <v>-1</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1314,7 +1306,7 @@
         <v>39</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>6</v>
@@ -1326,7 +1318,7 @@
         <v>7</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H14" s="2">
         <v>2</v>
@@ -1335,7 +1327,7 @@
         <v>7</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K14" s="4">
         <v>-1</v>
@@ -1344,13 +1336,13 @@
         <v>-1</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N14" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1358,7 +1350,7 @@
         <v>40</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>11</v>
@@ -1379,22 +1371,22 @@
         <v>7</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L15" s="4">
         <v>-1</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N15" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1402,7 +1394,7 @@
         <v>41</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>15</v>
@@ -1438,7 +1430,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1446,7 +1438,7 @@
         <v>42</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>21</v>
@@ -1455,7 +1447,7 @@
         <v>19</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>7</v>
@@ -1470,19 +1462,19 @@
         <v>-1</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N17" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1490,7 +1482,7 @@
         <v>43</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>24</v>
@@ -1502,7 +1494,7 @@
         <v>17</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H18" s="2">
         <v>4</v>
@@ -1511,7 +1503,7 @@
         <v>17</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K18" s="4">
         <v>-1</v>
@@ -1520,13 +1512,13 @@
         <v>-1</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N18" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -1534,7 +1526,7 @@
         <v>44</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>26</v>
@@ -1570,7 +1562,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -1578,7 +1570,7 @@
         <v>45</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>28</v>
@@ -1599,22 +1591,22 @@
         <v>17</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L20" s="4">
         <v>-1</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N20" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -1622,7 +1614,7 @@
         <v>46</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>30</v>
@@ -1631,7 +1623,7 @@
         <v>19</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>17</v>
@@ -1646,19 +1638,19 @@
         <v>-1</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N21" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -1666,7 +1658,7 @@
         <v>47</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>32</v>
@@ -1678,7 +1670,7 @@
         <v>16</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H22" s="2">
         <v>7</v>
@@ -1687,7 +1679,7 @@
         <v>16</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K22" s="4">
         <v>-1</v>
@@ -1696,13 +1688,13 @@
         <v>-1</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N22" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -1710,7 +1702,7 @@
         <v>48</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>34</v>
@@ -1746,7 +1738,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -1754,7 +1746,7 @@
         <v>49</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>36</v>
@@ -1775,22 +1767,22 @@
         <v>16</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L24" s="4">
         <v>-1</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N24" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -1798,7 +1790,7 @@
         <v>50</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>38</v>
@@ -1807,7 +1799,7 @@
         <v>19</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>16</v>
@@ -1822,19 +1814,19 @@
         <v>-1</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N25" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -1842,7 +1834,7 @@
         <v>5</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>6</v>
@@ -1854,7 +1846,7 @@
         <v>7</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H26" s="2">
         <v>2</v>
@@ -1863,7 +1855,7 @@
         <v>7</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K26" s="4">
         <v>-1</v>
@@ -1872,13 +1864,13 @@
         <v>-1</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N26" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -1886,7 +1878,7 @@
         <v>10</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>11</v>
@@ -1907,22 +1899,22 @@
         <v>7</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L27" s="4">
         <v>-1</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N27" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -1930,7 +1922,7 @@
         <v>14</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>15</v>
@@ -1966,7 +1958,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -1974,7 +1966,7 @@
         <v>20</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>21</v>
@@ -1983,7 +1975,7 @@
         <v>19</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>7</v>
@@ -1998,19 +1990,19 @@
         <v>-1</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N29" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -2018,7 +2010,7 @@
         <v>23</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>24</v>
@@ -2030,7 +2022,7 @@
         <v>17</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H30" s="2">
         <v>4</v>
@@ -2039,7 +2031,7 @@
         <v>17</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K30" s="4">
         <v>-1</v>
@@ -2048,13 +2040,13 @@
         <v>-1</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N30" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -2062,7 +2054,7 @@
         <v>25</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>26</v>
@@ -2098,7 +2090,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -2106,7 +2098,7 @@
         <v>27</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>28</v>
@@ -2127,22 +2119,22 @@
         <v>17</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L32" s="4">
         <v>-1</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N32" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -2150,7 +2142,7 @@
         <v>29</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>30</v>
@@ -2159,7 +2151,7 @@
         <v>19</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>17</v>
@@ -2174,19 +2166,19 @@
         <v>-1</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N33" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -2194,7 +2186,7 @@
         <v>31</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>32</v>
@@ -2206,7 +2198,7 @@
         <v>16</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H34" s="2">
         <v>7</v>
@@ -2215,7 +2207,7 @@
         <v>16</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K34" s="4">
         <v>-1</v>
@@ -2224,13 +2216,13 @@
         <v>-1</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N34" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -2238,7 +2230,7 @@
         <v>33</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>34</v>
@@ -2274,7 +2266,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -2282,7 +2274,7 @@
         <v>35</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>36</v>
@@ -2303,22 +2295,22 @@
         <v>16</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L36" s="4">
         <v>-1</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N36" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -2326,7 +2318,7 @@
         <v>37</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>38</v>
@@ -2335,7 +2327,7 @@
         <v>19</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>16</v>
@@ -2350,19 +2342,19 @@
         <v>-1</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N37" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -2370,7 +2362,7 @@
         <v>39</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>6</v>
@@ -2382,7 +2374,7 @@
         <v>7</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H38" s="2">
         <v>2</v>
@@ -2391,7 +2383,7 @@
         <v>7</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K38" s="4">
         <v>-1</v>
@@ -2400,13 +2392,13 @@
         <v>-1</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N38" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -2414,7 +2406,7 @@
         <v>40</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>11</v>
@@ -2435,22 +2427,22 @@
         <v>7</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L39" s="4">
         <v>-1</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N39" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -2458,7 +2450,7 @@
         <v>41</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>15</v>
@@ -2494,7 +2486,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -2502,7 +2494,7 @@
         <v>42</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>21</v>
@@ -2511,7 +2503,7 @@
         <v>19</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>7</v>
@@ -2526,19 +2518,19 @@
         <v>-1</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N41" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -2546,7 +2538,7 @@
         <v>43</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>24</v>
@@ -2558,7 +2550,7 @@
         <v>17</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H42" s="2">
         <v>4</v>
@@ -2567,7 +2559,7 @@
         <v>17</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K42" s="4">
         <v>-1</v>
@@ -2576,13 +2568,13 @@
         <v>-1</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N42" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -2590,7 +2582,7 @@
         <v>44</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>26</v>
@@ -2626,7 +2618,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -2634,7 +2626,7 @@
         <v>45</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>28</v>
@@ -2655,22 +2647,22 @@
         <v>17</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L44" s="4">
         <v>-1</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N44" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -2678,7 +2670,7 @@
         <v>46</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>30</v>
@@ -2687,7 +2679,7 @@
         <v>19</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>17</v>
@@ -2702,19 +2694,19 @@
         <v>-1</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N45" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -2722,7 +2714,7 @@
         <v>47</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>32</v>
@@ -2734,7 +2726,7 @@
         <v>16</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H46" s="2">
         <v>7</v>
@@ -2743,7 +2735,7 @@
         <v>16</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K46" s="4">
         <v>-1</v>
@@ -2752,13 +2744,13 @@
         <v>-1</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N46" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -2766,7 +2758,7 @@
         <v>48</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>34</v>
@@ -2802,7 +2794,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -2810,7 +2802,7 @@
         <v>49</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>36</v>
@@ -2831,22 +2823,22 @@
         <v>16</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L48" s="4">
         <v>-1</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N48" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -2854,7 +2846,7 @@
         <v>50</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>38</v>
@@ -2863,7 +2855,7 @@
         <v>19</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>16</v>
@@ -2878,19 +2870,19 @@
         <v>-1</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N49" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14">
       <c r="A50" s="2"/>
       <c r="B50" s="1"/>
       <c r="D50" s="1"/>
@@ -2907,7 +2899,7 @@
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14">
       <c r="A51" s="2"/>
       <c r="B51" s="1"/>
       <c r="D51" s="1"/>
@@ -2924,7 +2916,7 @@
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14">
       <c r="A52" s="2"/>
       <c r="B52" s="1"/>
       <c r="D52" s="1"/>
@@ -2941,7 +2933,7 @@
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14">
       <c r="A53" s="2"/>
       <c r="B53" s="1"/>
       <c r="D53" s="1"/>
@@ -2965,14 +2957,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O53"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L49" sqref="L2:L49"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
@@ -2990,7 +2982,7 @@
     <col min="14" max="14" width="20.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="7" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2998,7 +2990,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>3</v>
@@ -3007,45 +2999,45 @@
         <v>1</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="M1" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>80</v>
-      </c>
       <c r="N1" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="2">
         <v>49</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>6</v>
@@ -3057,7 +3049,7 @@
         <v>7</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H2" s="2">
         <v>2</v>
@@ -3066,7 +3058,7 @@
         <v>7</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K2" s="4">
         <v>-1</v>
@@ -3075,24 +3067,24 @@
         <v>-1</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="2">
         <v>50</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>11</v>
@@ -3113,33 +3105,33 @@
         <v>7</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L3" s="4">
         <v>-1</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="2">
         <v>51</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>15</v>
@@ -3175,18 +3167,18 @@
         <v>18</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="2">
         <v>52</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>21</v>
@@ -3195,7 +3187,7 @@
         <v>19</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>7</v>
@@ -3210,27 +3202,27 @@
         <v>-1</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15">
       <c r="A6" s="2">
         <v>53</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>24</v>
@@ -3242,7 +3234,7 @@
         <v>17</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H6" s="2">
         <v>4</v>
@@ -3251,7 +3243,7 @@
         <v>17</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K6" s="4">
         <v>-1</v>
@@ -3260,21 +3252,21 @@
         <v>-1</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15">
       <c r="A7" s="2">
         <v>54</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>26</v>
@@ -3310,15 +3302,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15">
       <c r="A8" s="2">
         <v>55</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>28</v>
@@ -3339,30 +3331,30 @@
         <v>17</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L8" s="4">
         <v>-1</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N8" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15">
       <c r="A9" s="2">
         <v>56</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>30</v>
@@ -3371,7 +3363,7 @@
         <v>19</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>17</v>
@@ -3386,27 +3378,27 @@
         <v>-1</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15">
       <c r="A10" s="2">
         <v>57</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>32</v>
@@ -3418,7 +3410,7 @@
         <v>16</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H10" s="2">
         <v>7</v>
@@ -3427,7 +3419,7 @@
         <v>16</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K10" s="4">
         <v>-1</v>
@@ -3436,21 +3428,21 @@
         <v>-1</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15">
       <c r="A11" s="2">
         <v>58</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>34</v>
@@ -3486,15 +3478,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15">
       <c r="A12" s="2">
         <v>59</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>36</v>
@@ -3515,30 +3507,30 @@
         <v>16</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L12" s="4">
         <v>-1</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N12" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15">
       <c r="A13" s="2">
         <v>60</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>38</v>
@@ -3547,7 +3539,7 @@
         <v>19</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>16</v>
@@ -3562,27 +3554,27 @@
         <v>-1</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15">
       <c r="A14" s="2">
         <v>61</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>6</v>
@@ -3594,7 +3586,7 @@
         <v>7</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H14" s="2">
         <v>2</v>
@@ -3603,7 +3595,7 @@
         <v>7</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K14" s="4">
         <v>-1</v>
@@ -3612,21 +3604,21 @@
         <v>-1</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N14" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15">
       <c r="A15" s="2">
         <v>62</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>11</v>
@@ -3647,30 +3639,30 @@
         <v>7</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L15" s="4">
         <v>-1</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N15" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15">
       <c r="A16" s="2">
         <v>63</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>15</v>
@@ -3706,15 +3698,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14">
       <c r="A17" s="2">
         <v>64</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>21</v>
@@ -3723,7 +3715,7 @@
         <v>19</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>7</v>
@@ -3738,27 +3730,27 @@
         <v>-1</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N17" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14">
       <c r="A18" s="2">
         <v>65</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>24</v>
@@ -3770,7 +3762,7 @@
         <v>17</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H18" s="2">
         <v>4</v>
@@ -3779,7 +3771,7 @@
         <v>17</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K18" s="4">
         <v>-1</v>
@@ -3788,21 +3780,21 @@
         <v>-1</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N18" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14">
       <c r="A19" s="2">
         <v>66</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>26</v>
@@ -3838,15 +3830,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14">
       <c r="A20" s="2">
         <v>67</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>28</v>
@@ -3867,30 +3859,30 @@
         <v>17</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L20" s="4">
         <v>-1</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N20" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14">
       <c r="A21" s="2">
         <v>68</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>30</v>
@@ -3899,7 +3891,7 @@
         <v>19</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>17</v>
@@ -3914,27 +3906,27 @@
         <v>-1</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N21" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14">
       <c r="A22" s="2">
         <v>69</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>32</v>
@@ -3946,7 +3938,7 @@
         <v>16</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H22" s="2">
         <v>7</v>
@@ -3955,7 +3947,7 @@
         <v>16</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K22" s="4">
         <v>-1</v>
@@ -3964,21 +3956,21 @@
         <v>-1</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N22" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14">
       <c r="A23" s="2">
         <v>70</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>34</v>
@@ -4014,15 +4006,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14">
       <c r="A24" s="2">
         <v>71</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>36</v>
@@ -4043,30 +4035,30 @@
         <v>16</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L24" s="4">
         <v>-1</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N24" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14">
       <c r="A25" s="2">
         <v>72</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>38</v>
@@ -4075,7 +4067,7 @@
         <v>19</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>16</v>
@@ -4090,27 +4082,27 @@
         <v>-1</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N25" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14">
       <c r="A26" s="2">
         <v>73</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>6</v>
@@ -4122,7 +4114,7 @@
         <v>7</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H26" s="2">
         <v>2</v>
@@ -4131,7 +4123,7 @@
         <v>7</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K26" s="4">
         <v>-1</v>
@@ -4140,21 +4132,21 @@
         <v>-1</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N26" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14">
       <c r="A27" s="2">
         <v>74</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>11</v>
@@ -4175,30 +4167,30 @@
         <v>7</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L27" s="4">
         <v>-1</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N27" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14">
       <c r="A28" s="2">
         <v>75</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>15</v>
@@ -4234,15 +4226,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14">
       <c r="A29" s="2">
         <v>76</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>21</v>
@@ -4251,7 +4243,7 @@
         <v>19</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>7</v>
@@ -4266,27 +4258,27 @@
         <v>-1</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N29" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14">
       <c r="A30" s="2">
         <v>77</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>24</v>
@@ -4298,7 +4290,7 @@
         <v>17</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H30" s="2">
         <v>4</v>
@@ -4307,7 +4299,7 @@
         <v>17</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K30" s="4">
         <v>-1</v>
@@ -4316,21 +4308,21 @@
         <v>-1</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N30" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14">
       <c r="A31" s="2">
         <v>78</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>26</v>
@@ -4366,15 +4358,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14">
       <c r="A32" s="2">
         <v>79</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>28</v>
@@ -4395,30 +4387,30 @@
         <v>17</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L32" s="4">
         <v>-1</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N32" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14">
       <c r="A33" s="2">
         <v>80</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>30</v>
@@ -4427,7 +4419,7 @@
         <v>19</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>17</v>
@@ -4442,27 +4434,27 @@
         <v>-1</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N33" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14">
       <c r="A34" s="2">
         <v>81</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>32</v>
@@ -4474,7 +4466,7 @@
         <v>16</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H34" s="2">
         <v>7</v>
@@ -4483,7 +4475,7 @@
         <v>16</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K34" s="4">
         <v>-1</v>
@@ -4492,21 +4484,21 @@
         <v>-1</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N34" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14">
       <c r="A35" s="2">
         <v>82</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>34</v>
@@ -4542,15 +4534,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14">
       <c r="A36" s="2">
         <v>83</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>36</v>
@@ -4571,30 +4563,30 @@
         <v>16</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L36" s="4">
         <v>-1</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N36" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14">
       <c r="A37" s="2">
         <v>84</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>38</v>
@@ -4603,7 +4595,7 @@
         <v>19</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>16</v>
@@ -4618,27 +4610,27 @@
         <v>-1</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N37" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14">
       <c r="A38" s="2">
         <v>85</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>6</v>
@@ -4650,7 +4642,7 @@
         <v>7</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H38" s="2">
         <v>2</v>
@@ -4659,7 +4651,7 @@
         <v>7</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K38" s="4">
         <v>-1</v>
@@ -4668,21 +4660,21 @@
         <v>-1</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N38" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14">
       <c r="A39" s="2">
         <v>86</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>11</v>
@@ -4703,30 +4695,30 @@
         <v>7</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L39" s="4">
         <v>-1</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N39" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14">
       <c r="A40" s="2">
         <v>87</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>15</v>
@@ -4762,15 +4754,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14">
       <c r="A41" s="2">
         <v>88</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>21</v>
@@ -4779,7 +4771,7 @@
         <v>19</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>7</v>
@@ -4794,27 +4786,27 @@
         <v>-1</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N41" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14">
       <c r="A42" s="2">
         <v>89</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>24</v>
@@ -4826,7 +4818,7 @@
         <v>17</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H42" s="2">
         <v>4</v>
@@ -4835,7 +4827,7 @@
         <v>17</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K42" s="4">
         <v>-1</v>
@@ -4844,21 +4836,21 @@
         <v>-1</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N42" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14">
       <c r="A43" s="2">
         <v>90</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>26</v>
@@ -4894,15 +4886,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14">
       <c r="A44" s="2">
         <v>91</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>28</v>
@@ -4923,30 +4915,30 @@
         <v>17</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L44" s="4">
         <v>-1</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N44" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14">
       <c r="A45" s="2">
         <v>92</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>30</v>
@@ -4955,7 +4947,7 @@
         <v>19</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>17</v>
@@ -4970,27 +4962,27 @@
         <v>-1</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N45" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14">
       <c r="A46" s="2">
         <v>93</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>32</v>
@@ -5002,7 +4994,7 @@
         <v>16</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H46" s="2">
         <v>7</v>
@@ -5011,7 +5003,7 @@
         <v>16</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K46" s="4">
         <v>-1</v>
@@ -5020,21 +5012,21 @@
         <v>-1</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N46" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14">
       <c r="A47" s="2">
         <v>94</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>34</v>
@@ -5070,15 +5062,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14">
       <c r="A48" s="2">
         <v>95</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>36</v>
@@ -5099,30 +5091,30 @@
         <v>16</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L48" s="4">
         <v>-1</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N48" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14">
       <c r="A49" s="2">
         <v>96</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>38</v>
@@ -5131,7 +5123,7 @@
         <v>19</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>16</v>
@@ -5146,28 +5138,28 @@
         <v>-1</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N49" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14">
       <c r="M50" s="1"/>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14">
       <c r="M51" s="1"/>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14">
       <c r="M52" s="1"/>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14">
       <c r="M53" s="1"/>
     </row>
   </sheetData>
